--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Desktop\Starting website (base)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Desktop\Starting website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADBD035-C747-4414-B42B-DAE8C8BEBB45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A814EF-41C9-4FB0-9D21-B89F4F2A29FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
   <si>
     <t>Catégorie</t>
   </si>
@@ -384,6 +384,17 @@
   </si>
   <si>
     <t>Implémenter les balises sémantiques dans le code HTML</t>
+  </si>
+  <si>
+    <t>Taille de police trop petite</t>
+  </si>
+  <si>
+    <t>Une police d'écriture trop petite nuis à la lisibilité du texte, surtout pour les personnes
+souffrants de prolèmes de vues.</t>
+  </si>
+  <si>
+    <t>Utiliser une taille de police suffisament grande pour une lecture 
+naturelle et simple, sans dénaturer le visuel de la page.</t>
   </si>
 </sst>
 </file>
@@ -762,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1247,13 +1258,21 @@
       <c r="C21" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Desktop\Starting website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A814EF-41C9-4FB0-9D21-B89F4F2A29FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1ED815-5C1E-4287-9DDC-3C5A38D0D5A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="86">
   <si>
     <t>Catégorie</t>
   </si>
@@ -96,6 +96,255 @@
 A inclure dans le &lt;head&gt; de l'index.</t>
   </si>
   <si>
+    <t xml:space="preserve">Absence de contenu dans le "content"
+ de la balise
+ &lt;meta name"description"&gt; </t>
+  </si>
+  <si>
+    <t>Lien vers la page de contact dans le nav 
+intitulé "page 2&gt;"</t>
+  </si>
+  <si>
+    <t>Textes en images</t>
+  </si>
+  <si>
+    <t>Remplacer le texte stocké dans des images par du 
+texte contenu dans une balise &lt;p&gt; qui est bien 
+plus adapté.</t>
+  </si>
+  <si>
+    <t>Appliquer un nom simple et explicite pour le lien 
+"Contact" ou "Contactez-nous".</t>
+  </si>
+  <si>
+    <t>Tailles d'images inadaptées à leur contenant</t>
+  </si>
+  <si>
+    <t>Type d'input inapproprié</t>
+  </si>
+  <si>
+    <t>Optimiser le chargement des images en adaptant leur 
+taille en amont  et non pas en CSS, pour accélérer
+la vitesse de chargement de la page.</t>
+  </si>
+  <si>
+    <t>Inclure le mot clés "Entreprise webdesign Lyon" un maximum dans les titres.
+ Attention cependant à conserver une expérience utilisateur agréable.</t>
+  </si>
+  <si>
+    <t>Contraste entre le texte et le background</t>
+  </si>
+  <si>
+    <t>&lt;title&gt;Entreprise Webdesign Lyon- La Chouette Agence&lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>Accessibilité</t>
+  </si>
+  <si>
+    <t>Supprimer ce contenu invisible, et préférer inclure les mots clés 
+de façon naturelle dans les textes de la page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO
+</t>
+  </si>
+  <si>
+    <t>Inclure les mots clés dans les titres et les textes de la page de 
+façon naturelle</t>
+  </si>
+  <si>
+    <t>Annuaire imposant dans le footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spamming de mots clés dans du texte invisible 
+(Keyword stuffing) </t>
+  </si>
+  <si>
+    <t>Se limiter à quelques liens de qualité, plutôt qu'une multitude 
+de liens de mauvaise qualité.</t>
+  </si>
+  <si>
+    <t>Cette valeur est incorrecte.
+ L'attribut lang doit avoir pour valeur une langue afin d'énoncer au navigateur la langue dans laquelle la page ou l'élément est écrit et comment lecteur d'écran 
+doit prononcer les mots.</t>
+  </si>
+  <si>
+    <t>Répéter 9 fois les keywords "agence design" peut être interprété comme du spam (pratique black hat). Cela peut être puni par le GoogleBot durant le référencement du site.
+De plus cette balise est devenue obsolète et peut donc être totalement supprimée.</t>
+  </si>
+  <si>
+    <t>La balise &lt;title&gt; indique aux moteurs de recherche de quoi traite la page et elle est
+affichée dans les résultats. Elle doit donc être remplie avec un texte attractif, qui contient 
+les mots clés relatifs à notre site web.</t>
+  </si>
+  <si>
+    <t>Entre autre, la balise meta name="robots" permet d'indiquer au GoogleBot 
+qu'il doit indéxer la page, et qu'il doit explorer les liens qui y sont présents.
+Ici la balise n'existe pas, ce qui est préjudiciable pour le référencement.</t>
+  </si>
+  <si>
+    <t>De même que le title,la description  indique aux moteurs de recherche de quoi traite la page et elle est affichée dans les résultats en dessous de ce dernier. Elle doit donc être remplie avec un texte attractif, qui contient les mots clés relatifs à notre site web.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplir le "content" avec le contenu approprié à savoir un
+descriptif du site et de l'entreprise, contenant 
+les mots clés. </t>
+  </si>
+  <si>
+    <t>Certains textes ont été remplacés par des images contenant du texte.
+En plus d'être une solution difficilement maintenable (pour changer la police 
+d'écriture par exemple), le GoogleBot ainsi que les lecteurs d'écran sont incapable 
+d'interpréter un texte stocké dans une image ce qui pose un problème pour le 
+référencement ET pour l'accessibilité.</t>
+  </si>
+  <si>
+    <t>Pour comprendre le contenu de la page et la référencer au mieux, GoogleBot est 
+partculièrement attentif au contenu des titres h1 et h2. Il est donc impératif d'y inclure
+nos mots clés afin de gagner des places dans les recherches de ces mots clés.</t>
+  </si>
+  <si>
+    <t>Description pertinente des images dans le texte alternatif</t>
+  </si>
+  <si>
+    <t>Inclure une description pertinente de l'image afin 
+d'aider les personnes malvoyantes ou aveugles, ainsi que le
+navigateur, à la comprendre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certains textes ne sont pas suffisament contrastés avec leur background, ce qui les rend 
+difficilement lisibles pour les personnes malvoyantes. </t>
+  </si>
+  <si>
+    <t>Adapter les couleurs afin qu'elles répondent aux exigences
+visuelles imposées par le WCAG.</t>
+  </si>
+  <si>
+    <t>Le focus des éléments n'est pas visible</t>
+  </si>
+  <si>
+    <t>SEO
+(obsolète)</t>
+  </si>
+  <si>
+    <t>Matérialiser le focus par un encadré, une couleur, etc..</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/1603881
+-apprenez-a-creer-votre-site-web-avec-html5-et-css3</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-les-bases-du-referencement-naturel-seo</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578342-realisez-un-audit-de-votre-site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En plus de ne pas être explicite pour l'utilisateur, ce lien le sera encore moins pour une personne aveugle ou malvoyante. En effet le lecteur d'écran énoncera
+"page2", ce qui ne renseigne pas dutout l'utilisateur sur la fonction de ce lien. </t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/1603881-apprenez-a-creer-votre-site-web-avec-html5-et-css3/1607171-creez-des-formulaires</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941263-creez-des-designs-visuels-accessibles</t>
+  </si>
+  <si>
+    <t>Cette ancienne pratique consistait à augmenter artificiellement la qualité d'un site webaux yeux du navigateur, en ajoutant de nombreux mots clés rendu invisibles, en les confondant avec le background par exemple. C'est une techique BlackHat sévèrementpunie par le GoogleBot, à éviter à tout prix.</t>
+  </si>
+  <si>
+    <t>Les liens dans le footer sont bien trop nombreux, et pour la plupart, de mauvaise qualité. Cela peut passer pour une tentative d'améliorer artificiellement l'autorité du site,ce qui est très mal vu et puni par le GoogleBot . De plus, de trop nombreux liens coûtent cher dans votre Crawl Budget.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certaines personnes naviguent exclusivement grâce au clavier, en passant le focus d'unélément à un autre. Ici l'élément qui est en "focus" n'est pas distingué par une couleur ou un encadré par exemple. Cela pose problème pour un utilisateur classique, mais bien plus encore pour une personne malvoyante. </t>
+  </si>
+  <si>
+    <t>Sur la page de contact, le formulaire "Comment nous avez-vous connu ?" est indiqué comme un input de type "email" alors qu'une checklist serait plus appropriée et plus claire.</t>
+  </si>
+  <si>
+    <t>Certaines images sont bien trop grandes par rapport à leur contenant, ce qui force d'une part le navigateur à charger des images inutilement grandes, mais qui force également le redimenssionnement des images en CSS. Tout cela ralenti le chargement de la page.</t>
+  </si>
+  <si>
+    <t>Répétition dans la balise meta "keywords" 
+(balise obsolète)</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578343-optimisez-le-contenu-de-vos-pages</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578346-augmentez-lautorite-de-votre-site</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941406-rendez-les-interactions-sur-le-site-accessibles</t>
+  </si>
+  <si>
+    <t>Les fichiers ne sont ni minifiés ni compressés</t>
+  </si>
+  <si>
+    <t>En compréssant les images, et en minifiant les fichers, nous pouvons gagner
+jusqu'à 70% de la vitesse de chargement initiale de la page.
+Ceci étant une action très simple à mettre en place, ne pas en profiter est une
+grosse erreur.</t>
+  </si>
+  <si>
+    <t>Minifier les fichier et comprésser les images</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055231-allegez-les-pages-de-votre-site</t>
+  </si>
+  <si>
+    <t>Corrigé</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Absence de balise sémantiques</t>
+  </si>
+  <si>
+    <t>Absence de cache</t>
+  </si>
+  <si>
+    <t>Aucun cache web n'est mis en place, ce qui est une occasion manquée de réduire
+le temps de chargement de notre site.  Le cache pemet de garder en mémoire les 
+élément de la page pour ne pas avoir à les charger une nouvelle fois.
+Cela accélère donc grandement la vitesse d'apparition du site à la seconde visite.</t>
+  </si>
+  <si>
+    <t>Accessibilié</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941560-annotez-vos-maquettes-a-laide-dinformations-daccessibilite</t>
+  </si>
+  <si>
+    <t>Aucune balise sémantique n'est présente dans le code. Elles permettent d'une part au GoogleBot de mieux comprendre la structure de notre page web, mais également aux utilisateurs de technologies d'assistance de mieux se repérer, et de naviguer plus efficacement d'une zone importante à une autre.</t>
+  </si>
+  <si>
+    <t>Implémenter les balises sémantiques dans le code HTML</t>
+  </si>
+  <si>
+    <t>Taille de police trop petite</t>
+  </si>
+  <si>
+    <t>Une police d'écriture trop petite nuis à la lisibilité du texte, surtout pour les personnes
+souffrants de prolèmes de vues.</t>
+  </si>
+  <si>
+    <t>Utiliser une taille de police suffisament grande pour une lecture 
+naturelle et simple, sans dénaturer le visuel de la page.</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055236-parametrez-le-cache-navigateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configurer le BrowserCache avec des dates d'expiration relativement
+élevée afin d'éviter à l'utlisateur de charger la page complétement 
+à chaque visite. Il faudra utilise un fichier .htaccess à la racine du site. </t>
+  </si>
+  <si>
+    <t>Choisir l'input le plus cohérent avec l'information demandé. 
+Ici un input de type "radio" semble parfait.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <strike/>
@@ -104,7 +353,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;html lang="fr"&gt;</t>
+      <t>&lt;html lang="default"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -135,266 +384,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Absence de contenu dans le "content"
- de la balise
- &lt;meta name"description"&gt; </t>
-  </si>
-  <si>
-    <t>Lien vers la page de contact dans le nav 
-intitulé "page 2&gt;"</t>
-  </si>
-  <si>
-    <t>Bouton menu inutilisé et non fonctionnel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dans le code html se trouve ce qui est censé être un menu déroulant.
-En plus d'être inutile, il n'est pas fonctionnel, le développeur l'a donc caché 
-au lieu de le supprimer.
-En chargeant ces données inutiles, la page est plus lourde et donc plus lente, ce qui est un point négatif pour notre référencement et pour l"expérience utilisateur.  </t>
-  </si>
-  <si>
-    <t>Supprimer le contenu inutile afin de rendre le code 
-plus lisible et la page plus rapide à charger.</t>
-  </si>
-  <si>
-    <t>Textes en images</t>
-  </si>
-  <si>
-    <t>Remplacer le texte stocké dans des images par du 
-texte contenu dans une balise &lt;p&gt; qui est bien 
-plus adapté.</t>
-  </si>
-  <si>
-    <t>Appliquer un nom simple et explicite pour le lien 
-"Contact" ou "Contactez-nous".</t>
-  </si>
-  <si>
-    <t>Tailles d'images inadaptées à leur contenant</t>
-  </si>
-  <si>
-    <t>Type d'input inapproprié</t>
-  </si>
-  <si>
-    <t>Les h1 et h2  de l'index ne contiennent aucun des 
-mots clés souhaités</t>
-  </si>
-  <si>
-    <t>Optimiser le chargement des images en adaptant leur 
-taille en amont  et non pas en CSS, pour accélérer
-la vitesse de chargement de la page.</t>
-  </si>
-  <si>
-    <t>Inclure le mot clés "Entreprise webdesign Lyon" un maximum dans les titres.
- Attention cependant à conserver une expérience utilisateur agréable.</t>
-  </si>
-  <si>
-    <t>Contraste entre le texte et le background</t>
-  </si>
-  <si>
-    <t>&lt;title&gt;Entreprise Webdesign Lyon- La Chouette Agence&lt;/title&gt;</t>
-  </si>
-  <si>
-    <t>Accessibilité</t>
-  </si>
-  <si>
-    <t>Regrouper les balises meta</t>
-  </si>
-  <si>
-    <t>Supprimer ce contenu invisible, et préférer inclure les mots clés 
-de façon naturelle dans les textes de la page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEO
-</t>
-  </si>
-  <si>
-    <t>Inclure les mots clés dans les titres et les textes de la page de 
-façon naturelle</t>
-  </si>
-  <si>
-    <t>Annuaire imposant dans le footer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spamming de mots clés dans du texte invisible 
-(Keyword stuffing) </t>
-  </si>
-  <si>
-    <t>Se limiter à quelques liens de qualité, plutôt qu'une multitude 
-de liens de mauvaise qualité.</t>
-  </si>
-  <si>
-    <t>Cette valeur est incorrecte.
- L'attribut lang doit avoir pour valeur une langue afin d'énoncer au navigateur la langue dans laquelle la page ou l'élément est écrit et comment lecteur d'écran 
-doit prononcer les mots.</t>
-  </si>
-  <si>
-    <t>Répéter 9 fois les keywords "agence design" peut être interprété comme du spam (pratique black hat). Cela peut être puni par le GoogleBot durant le référencement du site.
-De plus cette balise est devenue obsolète et peut donc être totalement supprimée.</t>
-  </si>
-  <si>
-    <t>La balise &lt;title&gt; indique aux moteurs de recherche de quoi traite la page et elle est
-affichée dans les résultats. Elle doit donc être remplie avec un texte attractif, qui contient 
-les mots clés relatifs à notre site web.</t>
-  </si>
-  <si>
-    <t>Entre autre, la balise meta name="robots" permet d'indiquer au GoogleBot 
-qu'il doit indéxer la page, et qu'il doit explorer les liens qui y sont présents.
-Ici la balise n'existe pas, ce qui est préjudiciable pour le référencement.</t>
-  </si>
-  <si>
-    <t>De même que le title,la description  indique aux moteurs de recherche de quoi traite la page et elle est affichée dans les résultats en dessous de ce dernier. Elle doit donc être remplie avec un texte attractif, qui contient les mots clés relatifs à notre site web.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remplir le "content" avec le contenu approprié à savoir un
-descriptif du site et de l'entreprise, contenant 
-les mots clés. </t>
-  </si>
-  <si>
-    <t>Certains textes ont été remplacés par des images contenant du texte.
-En plus d'être une solution difficilement maintenable (pour changer la police 
-d'écriture par exemple), le GoogleBot ainsi que les lecteurs d'écran sont incapable 
-d'interpréter un texte stocké dans une image ce qui pose un problème pour le 
-référencement ET pour l'accessibilité.</t>
-  </si>
-  <si>
-    <t>Pour comprendre le contenu de la page et la référencer au mieux, GoogleBot est 
-partculièrement attentif au contenu des titres h1 et h2. Il est donc impératif d'y inclure
-nos mots clés afin de gagner des places dans les recherches de ces mots clés.</t>
-  </si>
-  <si>
-    <t>Description pertinente des images dans le texte alternatif</t>
-  </si>
-  <si>
     <t>Le texte alternatif des images ne décrit pas dutout leur contenu. Ce texte doit servir 
 à décrire l'image au navigateur, mais surtout aux personnes malvoyantes ou aveugles.
-De plus ils en profitent pour spammer des mots clés (black hat)</t>
-  </si>
-  <si>
-    <t>Inclure une description pertinente de l'image afin 
-d'aider les personnes malvoyantes ou aveugles, ainsi que le
-navigateur, à la comprendre.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certains textes ne sont pas suffisament contrastés avec leur background, ce qui les rend 
-difficilement lisibles pour les personnes malvoyantes. </t>
-  </si>
-  <si>
-    <t>Adapter les couleurs afin qu'elles répondent aux exigences
-visuelles imposées par le WCAG.</t>
-  </si>
-  <si>
-    <t>Le focus des éléments n'est pas visible</t>
-  </si>
-  <si>
-    <t>SEO
-(obsolète)</t>
-  </si>
-  <si>
-    <t>Matérialiser le focus par un encadré, une couleur, etc..</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/1603881
--apprenez-a-creer-votre-site-web-avec-html5-et-css3</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/5561431-les-bases-du-referencement-naturel-seo</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578342-realisez-un-audit-de-votre-site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En plus de ne pas être explicite pour l'utilisateur, ce lien le sera encore moins pour une personne aveugle ou malvoyante. En effet le lecteur d'écran énoncera
-"page2", ce qui ne renseigne pas dutout l'utilisateur sur la fonction de ce lien. </t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/1603881-apprenez-a-creer-votre-site-web-avec-html5-et-css3/1607171-creez-des-formulaires</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941263-creez-des-designs-visuels-accessibles</t>
-  </si>
-  <si>
-    <t>Cette ancienne pratique consistait à augmenter artificiellement la qualité d'un site webaux yeux du navigateur, en ajoutant de nombreux mots clés rendu invisibles, en les confondant avec le background par exemple. C'est une techique BlackHat sévèrementpunie par le GoogleBot, à éviter à tout prix.</t>
-  </si>
-  <si>
-    <t>Les liens dans le footer sont bien trop nombreux, et pour la plupart, de mauvaise qualité. Cela peut passer pour une tentative d'améliorer artificiellement l'autorité du site,ce qui est très mal vu et puni par le GoogleBot . De plus, de trop nombreux liens coûtent cher dans votre Crawl Budget.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certaines personnes naviguent exclusivement grâce au clavier, en passant le focus d'unélément à un autre. Ici l'élément qui est en "focus" n'est pas distingué par une couleur ou un encadré par exemple. Cela pose problème pour un utilisateur classique, mais bien plus encore pour une personne malvoyante. </t>
-  </si>
-  <si>
-    <t>Sur la page de contact, le formulaire "Comment nous avez-vous connu ?" est indiqué comme un input de type "email" alors qu'une checklist serait plus appropriée et plus claire.</t>
-  </si>
-  <si>
-    <t>Certaines images sont bien trop grandes par rapport à leur contenant, ce qui force d'une part le navigateur à charger des images inutilement grandes, mais qui force également le redimenssionnement des images en CSS. Tout cela ralenti le chargement de la page.</t>
-  </si>
-  <si>
-    <t>Répétition dans la balise meta "keywords" 
-(balise obsolète)</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578343-optimisez-le-contenu-de-vos-pages</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578346-augmentez-lautorite-de-votre-site</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941406-rendez-les-interactions-sur-le-site-accessibles</t>
-  </si>
-  <si>
-    <t>Les fichiers ne sont ni minifiés ni compressés</t>
-  </si>
-  <si>
-    <t>En compréssant les images, et en minifiant les fichers, nous pouvons gagner
-jusqu'à 70% de la vitesse de chargement initiale de la page.
-Ceci étant une action très simple à mettre en place, ne pas en profiter est une
-grosse erreur.</t>
-  </si>
-  <si>
-    <t>Minifier les fichier et comprésser les images</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055231-allegez-les-pages-de-votre-site</t>
-  </si>
-  <si>
-    <t>Corrigé</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Absence de balise sémantiques</t>
-  </si>
-  <si>
-    <t>Absence de cache</t>
-  </si>
-  <si>
-    <t>Aucun cache web n'est mis en place, ce qui est une occasion manquée de réduire
-le temps de chargement de notre site.  Le cache pemet de garder en mémoire les 
-élément de la page pour ne pas avoir à les charger une nouvelle fois.
-Cela accélère donc grandement la vitesse d'apparition du site à la seconde visite.</t>
-  </si>
-  <si>
-    <t>Accessibilié</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941560-annotez-vos-maquettes-a-laide-dinformations-daccessibilite</t>
-  </si>
-  <si>
-    <t>Aucune balise sémantique n'est présente dans le code. Elles permettent d'une part au GoogleBot de mieux comprendre la structure de notre page web, mais également aux utilisateurs de technologies d'assistance de mieux se repérer, et de naviguer plus efficacement d'une zone importante à une autre.</t>
-  </si>
-  <si>
-    <t>Implémenter les balises sémantiques dans le code HTML</t>
-  </si>
-  <si>
-    <t>Taille de police trop petite</t>
-  </si>
-  <si>
-    <t>Une police d'écriture trop petite nuis à la lisibilité du texte, surtout pour les personnes
-souffrants de prolèmes de vues.</t>
-  </si>
-  <si>
-    <t>Utiliser une taille de police suffisament grande pour une lecture 
-naturelle et simple, sans dénaturer le visuel de la page.</t>
+Ne surtout pas en profiter pour spammer des mots clés (black hat)</t>
+  </si>
+  <si>
+    <t>Les h1 et h2 ne contiennent aucun des 
+mots clés visés</t>
+  </si>
+  <si>
+    <t>OUI</t>
+  </si>
+  <si>
+    <t>Pas prioritaire</t>
   </si>
 </sst>
 </file>
@@ -457,12 +459,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -471,6 +467,11 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -505,9 +506,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -538,15 +539,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -554,6 +552,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -774,7 +778,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -807,8 +811,8 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>73</v>
+      <c r="G1" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -843,83 +847,77 @@
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>74</v>
+      <c r="E2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>54</v>
+        <v>81</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>56</v>
+      <c r="D5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -930,19 +928,17 @@
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>56</v>
+      <c r="E6" s="17"/>
+      <c r="F6" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -950,332 +946,338 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>56</v>
+        <v>37</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="9" t="b">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8"/>
+      <c r="E9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="G9" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>56</v>
+      <c r="E10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>74</v>
+      <c r="B12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="C13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="8"/>
+        <v>82</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>36</v>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>66</v>
-      </c>
       <c r="G16" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="14" t="s">
+      <c r="B18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="14" t="s">
-        <v>79</v>
+      <c r="G20" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
+      <c r="E21" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
@@ -1299,9 +1301,7 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="B26" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="B26" s="4"/>
       <c r="C26" s="8"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -2347,6 +2347,9 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:E7"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{CB40C86B-5174-4E5B-BA8F-BB9C49C97F0F}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{96516E99-30D9-4AB8-B1A1-98659ACD247D}"/>
@@ -2354,19 +2357,20 @@
     <hyperlink ref="F5" r:id="rId4" xr:uid="{FCBFD71A-9248-4008-8FEE-DC28C1979567}"/>
     <hyperlink ref="F6" r:id="rId5" xr:uid="{994EDB3F-4817-41C6-9A79-4B45FC466E54}"/>
     <hyperlink ref="F7" r:id="rId6" xr:uid="{94E3CE09-AE01-4E7F-8887-6FC223F7F02C}"/>
-    <hyperlink ref="F10" r:id="rId7" xr:uid="{695FE30A-37EC-45D7-9E10-267F8FA9C8A8}"/>
-    <hyperlink ref="F11" r:id="rId8" xr:uid="{6EB47481-4B28-4FE5-A362-4E146B8A35BF}"/>
-    <hyperlink ref="F12" r:id="rId9" xr:uid="{F5EBC36A-8221-46EE-94BB-915ADF665F87}"/>
-    <hyperlink ref="F13" r:id="rId10" xr:uid="{ECE3F745-BEE4-4157-B611-0094F35DA08E}"/>
-    <hyperlink ref="F14" r:id="rId11" xr:uid="{32D556F7-7075-4CF1-89B4-22CE75AF10DA}"/>
-    <hyperlink ref="F15" r:id="rId12" xr:uid="{84AF7FD8-B4D0-4C2A-80B6-DC41FB94D7A8}"/>
-    <hyperlink ref="F16" r:id="rId13" xr:uid="{FBCA8A19-2655-47F9-BE6A-574D0B7AA571}"/>
-    <hyperlink ref="F17" r:id="rId14" xr:uid="{B68BC12F-3CE7-46DF-BA2B-B9D8B0B23F86}"/>
-    <hyperlink ref="F18" r:id="rId15" xr:uid="{F9E40034-19FE-4C71-8802-9259C4D5218C}"/>
-    <hyperlink ref="F19" r:id="rId16" xr:uid="{D5296851-1EB2-4DDA-A34B-1527A88B2A15}"/>
-    <hyperlink ref="F20" r:id="rId17" xr:uid="{D2214DFF-D13D-446C-82FF-E108A309CEE3}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{695FE30A-37EC-45D7-9E10-267F8FA9C8A8}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{6EB47481-4B28-4FE5-A362-4E146B8A35BF}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{F5EBC36A-8221-46EE-94BB-915ADF665F87}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{ECE3F745-BEE4-4157-B611-0094F35DA08E}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{32D556F7-7075-4CF1-89B4-22CE75AF10DA}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{84AF7FD8-B4D0-4C2A-80B6-DC41FB94D7A8}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{FBCA8A19-2655-47F9-BE6A-574D0B7AA571}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{B68BC12F-3CE7-46DF-BA2B-B9D8B0B23F86}"/>
+    <hyperlink ref="F17" r:id="rId15" xr:uid="{F9E40034-19FE-4C71-8802-9259C4D5218C}"/>
+    <hyperlink ref="F18" r:id="rId16" xr:uid="{D5296851-1EB2-4DDA-A34B-1527A88B2A15}"/>
+    <hyperlink ref="F19" r:id="rId17" xr:uid="{D2214DFF-D13D-446C-82FF-E108A309CEE3}"/>
+    <hyperlink ref="F20" r:id="rId18" xr:uid="{8B08EACA-02A5-4FCD-98AA-E5871E23F699}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId18"/>
+  <pageSetup orientation="landscape" r:id="rId19"/>
 </worksheet>
 </file>